--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Cx3cr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Cx3cr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H2">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I2">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J2">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1619216666666667</v>
+        <v>0.2438225</v>
       </c>
       <c r="N2">
-        <v>0.485765</v>
+        <v>0.487645</v>
       </c>
       <c r="O2">
-        <v>0.001491927061095246</v>
+        <v>0.005769507646004085</v>
       </c>
       <c r="P2">
-        <v>0.001491927061095246</v>
+        <v>0.003853749843732457</v>
       </c>
       <c r="Q2">
-        <v>1.447373087953333</v>
+        <v>4.051354781911249</v>
       </c>
       <c r="R2">
-        <v>8.68423852772</v>
+        <v>16.205419127645</v>
       </c>
       <c r="S2">
-        <v>0.000516992739753833</v>
+        <v>0.003849971309354406</v>
       </c>
       <c r="T2">
-        <v>0.0004055245130944945</v>
+        <v>0.002320777604407629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H3">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I3">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J3">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>41.67170066666667</v>
+        <v>0.1619216666666667</v>
       </c>
       <c r="N3">
-        <v>125.015102</v>
+        <v>0.485765</v>
       </c>
       <c r="O3">
-        <v>0.3839581149720183</v>
+        <v>0.003831509782268077</v>
       </c>
       <c r="P3">
-        <v>0.3839581149720182</v>
+        <v>0.003838892622380414</v>
       </c>
       <c r="Q3">
-        <v>372.4918308699494</v>
+        <v>2.690490494294166</v>
       </c>
       <c r="R3">
-        <v>2234.950985219696</v>
+        <v>16.142942965765</v>
       </c>
       <c r="S3">
-        <v>0.133051784491647</v>
+        <v>0.00255675243683218</v>
       </c>
       <c r="T3">
-        <v>0.1043646379792875</v>
+        <v>0.002311830395072382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H4">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I4">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J4">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.241794</v>
+        <v>23.83935533333333</v>
       </c>
       <c r="N4">
-        <v>0.725382</v>
+        <v>71.518066</v>
       </c>
       <c r="O4">
-        <v>0.002227861281548468</v>
+        <v>0.5641043909871933</v>
       </c>
       <c r="P4">
-        <v>0.002227861281548468</v>
+        <v>0.5651913495915012</v>
       </c>
       <c r="Q4">
-        <v>2.161329830856</v>
+        <v>396.1147401383443</v>
       </c>
       <c r="R4">
-        <v>12.967978985136</v>
+        <v>2376.688440830066</v>
       </c>
       <c r="S4">
-        <v>0.0007720136846996283</v>
+        <v>0.3764247928999099</v>
       </c>
       <c r="T4">
-        <v>0.0006055606771947559</v>
+        <v>0.3403654828478642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H5">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I5">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J5">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.45647566666666</v>
+        <v>4.474532666666666</v>
       </c>
       <c r="N5">
-        <v>199.369427</v>
+        <v>13.423598</v>
       </c>
       <c r="O5">
-        <v>0.612322096685338</v>
+        <v>0.1058796888417942</v>
       </c>
       <c r="P5">
-        <v>0.612322096685338</v>
+        <v>0.1060837057589585</v>
       </c>
       <c r="Q5">
-        <v>594.0360939970493</v>
+        <v>74.34883702659964</v>
       </c>
       <c r="R5">
-        <v>3564.216563982296</v>
+        <v>446.0930221595979</v>
       </c>
       <c r="S5">
-        <v>0.2121860288161597</v>
+        <v>0.0706531283595063</v>
       </c>
       <c r="T5">
-        <v>0.1664368363511232</v>
+        <v>0.06388496879691381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>16.6160005</v>
+      </c>
+      <c r="H6">
+        <v>33.232001</v>
+      </c>
+      <c r="I6">
+        <v>0.6672963354196896</v>
+      </c>
+      <c r="J6">
+        <v>0.6022128312718646</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.382185666666667</v>
-      </c>
-      <c r="H6">
-        <v>16.146557</v>
-      </c>
-      <c r="I6">
-        <v>0.2086507741237513</v>
-      </c>
-      <c r="J6">
-        <v>0.2454957209561943</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1619216666666667</v>
+        <v>13.54090633333333</v>
       </c>
       <c r="N6">
-        <v>0.485765</v>
+        <v>40.622719</v>
       </c>
       <c r="O6">
-        <v>0.001491927061095246</v>
+        <v>0.3204149027427403</v>
       </c>
       <c r="P6">
-        <v>0.001491927061095246</v>
+        <v>0.3210323021834275</v>
       </c>
       <c r="Q6">
-        <v>0.8714924734561111</v>
+        <v>224.9957064051198</v>
       </c>
       <c r="R6">
-        <v>7.843432261105001</v>
+        <v>1349.974238430719</v>
       </c>
       <c r="S6">
-        <v>0.0003112917362336963</v>
+        <v>0.2138116904140868</v>
       </c>
       <c r="T6">
-        <v>0.0003662617094776336</v>
+        <v>0.1933297716276067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>16.146557</v>
       </c>
       <c r="I7">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J7">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>41.67170066666667</v>
+        <v>0.2438225</v>
       </c>
       <c r="N7">
-        <v>125.015102</v>
+        <v>0.487645</v>
       </c>
       <c r="O7">
-        <v>0.3839581149720183</v>
+        <v>0.005769507646004085</v>
       </c>
       <c r="P7">
-        <v>0.3839581149720182</v>
+        <v>0.003853749843732457</v>
       </c>
       <c r="Q7">
-        <v>224.2848300337571</v>
+        <v>1.312297964710833</v>
       </c>
       <c r="R7">
-        <v>2018.563470303814</v>
+        <v>7.873787788265001</v>
       </c>
       <c r="S7">
-        <v>0.08011315792000791</v>
+        <v>0.001247066669159356</v>
       </c>
       <c r="T7">
-        <v>0.09426007425203695</v>
+        <v>0.001127604921349492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>16.146557</v>
       </c>
       <c r="I8">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J8">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.241794</v>
+        <v>0.1619216666666667</v>
       </c>
       <c r="N8">
-        <v>0.725382</v>
+        <v>0.485765</v>
       </c>
       <c r="O8">
-        <v>0.002227861281548468</v>
+        <v>0.003831509782268077</v>
       </c>
       <c r="P8">
-        <v>0.002227861281548468</v>
+        <v>0.003838892622380414</v>
       </c>
       <c r="Q8">
-        <v>1.301380201086</v>
+        <v>0.8714924734561111</v>
       </c>
       <c r="R8">
-        <v>11.712421809774</v>
+        <v>7.843432261105001</v>
       </c>
       <c r="S8">
-        <v>0.0004648449810354206</v>
+        <v>0.0008281725989797145</v>
       </c>
       <c r="T8">
-        <v>0.0005469304115041323</v>
+        <v>0.001123257707183168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>16.146557</v>
       </c>
       <c r="I9">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J9">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,122 +995,122 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.45647566666666</v>
+        <v>23.83935533333333</v>
       </c>
       <c r="N9">
-        <v>199.369427</v>
+        <v>71.518066</v>
       </c>
       <c r="O9">
-        <v>0.612322096685338</v>
+        <v>0.5641043909871933</v>
       </c>
       <c r="P9">
-        <v>0.612322096685338</v>
+        <v>0.5651913495915012</v>
       </c>
       <c r="Q9">
-        <v>357.6810907903155</v>
+        <v>128.3078365776402</v>
       </c>
       <c r="R9">
-        <v>3219.129817112839</v>
+        <v>1154.770529198762</v>
       </c>
       <c r="S9">
-        <v>0.1277614794864743</v>
+        <v>0.1219299508882335</v>
       </c>
       <c r="T9">
-        <v>0.1503224545831756</v>
+        <v>0.165374654076219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.6756</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H10">
-        <v>5.3512</v>
+        <v>16.146557</v>
       </c>
       <c r="I10">
-        <v>0.1037247775941662</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J10">
-        <v>0.08136079425358526</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1619216666666667</v>
+        <v>4.474532666666666</v>
       </c>
       <c r="N10">
-        <v>0.485765</v>
+        <v>13.423598</v>
       </c>
       <c r="O10">
-        <v>0.001491927061095246</v>
+        <v>0.1058796888417942</v>
       </c>
       <c r="P10">
-        <v>0.001491927061095246</v>
+        <v>0.1060837057589585</v>
       </c>
       <c r="Q10">
-        <v>0.4332376113333333</v>
+        <v>24.08276558356511</v>
       </c>
       <c r="R10">
-        <v>2.599425668</v>
+        <v>216.744890252086</v>
       </c>
       <c r="S10">
-        <v>0.0001547498025988223</v>
+        <v>0.02288566702689345</v>
       </c>
       <c r="T10">
-        <v>0.0001213843706591265</v>
+        <v>0.03104002946204144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.6756</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H11">
-        <v>5.3512</v>
+        <v>16.146557</v>
       </c>
       <c r="I11">
-        <v>0.1037247775941662</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J11">
-        <v>0.08136079425358526</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.67170066666667</v>
+        <v>13.54090633333333</v>
       </c>
       <c r="N11">
-        <v>125.015102</v>
+        <v>40.622719</v>
       </c>
       <c r="O11">
-        <v>0.3839581149720183</v>
+        <v>0.3204149027427403</v>
       </c>
       <c r="P11">
-        <v>0.3839581149720182</v>
+        <v>0.3210323021834275</v>
       </c>
       <c r="Q11">
-        <v>111.4968023037333</v>
+        <v>72.87967198094256</v>
       </c>
       <c r="R11">
-        <v>668.9808138224</v>
+        <v>655.917047828483</v>
       </c>
       <c r="S11">
-        <v>0.03982597008094787</v>
+        <v>0.06925699210904991</v>
       </c>
       <c r="T11">
-        <v>0.03123913719423281</v>
+        <v>0.09393386144223259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H12">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I12">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J12">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.241794</v>
+        <v>0.2438225</v>
       </c>
       <c r="N12">
-        <v>0.725382</v>
+        <v>0.487645</v>
       </c>
       <c r="O12">
-        <v>0.002227861281548468</v>
+        <v>0.005769507646004085</v>
       </c>
       <c r="P12">
-        <v>0.002227861281548468</v>
+        <v>0.003853749843732457</v>
       </c>
       <c r="Q12">
-        <v>0.6469440264</v>
+        <v>0.7076450664599999</v>
       </c>
       <c r="R12">
-        <v>3.8816641584</v>
+        <v>2.83058026584</v>
       </c>
       <c r="S12">
-        <v>0.0002310844159392689</v>
+        <v>0.0006724696674903238</v>
       </c>
       <c r="T12">
-        <v>0.0001812605633535937</v>
+        <v>0.0004053673179753362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,140 +1225,140 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H13">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I13">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J13">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>66.45647566666666</v>
+        <v>0.1619216666666667</v>
       </c>
       <c r="N13">
-        <v>199.369427</v>
+        <v>0.485765</v>
       </c>
       <c r="O13">
-        <v>0.612322096685338</v>
+        <v>0.003831509782268077</v>
       </c>
       <c r="P13">
-        <v>0.612322096685338</v>
+        <v>0.003838892622380414</v>
       </c>
       <c r="Q13">
-        <v>177.8109462937333</v>
+        <v>0.4699446054799999</v>
       </c>
       <c r="R13">
-        <v>1066.8656777624</v>
+        <v>2.81966763288</v>
       </c>
       <c r="S13">
-        <v>0.06351297329468018</v>
+        <v>0.0004465847464561818</v>
       </c>
       <c r="T13">
-        <v>0.04981901212533973</v>
+        <v>0.0004038045201248637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.902296</v>
+      </c>
+      <c r="H14">
+        <v>5.804592</v>
+      </c>
+      <c r="I14">
+        <v>0.1165558152879945</v>
+      </c>
+      <c r="J14">
+        <v>0.1051877611191097</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>8.798677</v>
-      </c>
-      <c r="H14">
-        <v>26.396031</v>
-      </c>
-      <c r="I14">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J14">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1619216666666667</v>
+        <v>23.83935533333333</v>
       </c>
       <c r="N14">
-        <v>0.485765</v>
+        <v>71.518066</v>
       </c>
       <c r="O14">
-        <v>0.001491927061095246</v>
+        <v>0.5641043909871933</v>
       </c>
       <c r="P14">
-        <v>0.001491927061095246</v>
+        <v>0.5651913495915012</v>
       </c>
       <c r="Q14">
-        <v>1.424696444301667</v>
+        <v>69.188865626512</v>
       </c>
       <c r="R14">
-        <v>12.822267998715</v>
+        <v>415.133193759072</v>
       </c>
       <c r="S14">
-        <v>0.0005088927825088945</v>
+        <v>0.06574964719904991</v>
       </c>
       <c r="T14">
-        <v>0.0005987564678639917</v>
+        <v>0.05945121266741806</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.798677</v>
+        <v>2.902296</v>
       </c>
       <c r="H15">
-        <v>26.396031</v>
+        <v>5.804592</v>
       </c>
       <c r="I15">
-        <v>0.3410976285498225</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J15">
-        <v>0.4013309252695206</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,152 +1367,90 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.67170066666667</v>
+        <v>4.474532666666666</v>
       </c>
       <c r="N15">
-        <v>125.015102</v>
+        <v>13.423598</v>
       </c>
       <c r="O15">
-        <v>0.3839581149720183</v>
+        <v>0.1058796888417942</v>
       </c>
       <c r="P15">
-        <v>0.3839581149720182</v>
+        <v>0.1060837057589585</v>
       </c>
       <c r="Q15">
-        <v>366.6558342066846</v>
+        <v>12.986418260336</v>
       </c>
       <c r="R15">
-        <v>3299.902507860162</v>
+        <v>77.91850956201598</v>
       </c>
       <c r="S15">
-        <v>0.1309672024794155</v>
+        <v>0.0123408934553945</v>
       </c>
       <c r="T15">
-        <v>0.154094265546461</v>
+        <v>0.01115870750000325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.902296</v>
+      </c>
+      <c r="H16">
+        <v>5.804592</v>
+      </c>
+      <c r="I16">
+        <v>0.1165558152879945</v>
+      </c>
+      <c r="J16">
+        <v>0.1051877611191097</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8.798677</v>
-      </c>
-      <c r="H16">
-        <v>26.396031</v>
-      </c>
-      <c r="I16">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J16">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.241794</v>
+        <v>13.54090633333333</v>
       </c>
       <c r="N16">
-        <v>0.725382</v>
+        <v>40.622719</v>
       </c>
       <c r="O16">
-        <v>0.002227861281548468</v>
+        <v>0.3204149027427403</v>
       </c>
       <c r="P16">
-        <v>0.002227861281548468</v>
+        <v>0.3210323021834275</v>
       </c>
       <c r="Q16">
-        <v>2.127467306538</v>
+        <v>39.29971828760799</v>
       </c>
       <c r="R16">
-        <v>19.147205758842</v>
+        <v>235.798309725648</v>
       </c>
       <c r="S16">
-        <v>0.0007599181998741509</v>
+        <v>0.03734622021960355</v>
       </c>
       <c r="T16">
-        <v>0.0008941096294959867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.798677</v>
-      </c>
-      <c r="H17">
-        <v>26.396031</v>
-      </c>
-      <c r="I17">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J17">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>66.45647566666666</v>
-      </c>
-      <c r="N17">
-        <v>199.369427</v>
-      </c>
-      <c r="O17">
-        <v>0.612322096685338</v>
-      </c>
-      <c r="P17">
-        <v>0.612322096685338</v>
-      </c>
-      <c r="Q17">
-        <v>584.7290639493596</v>
-      </c>
-      <c r="R17">
-        <v>5262.561575544237</v>
-      </c>
-      <c r="S17">
-        <v>0.2088616150880239</v>
-      </c>
-      <c r="T17">
-        <v>0.2457437936256995</v>
+        <v>0.03376866911358822</v>
       </c>
     </row>
   </sheetData>
